--- a/datos/procesadores.xlsx
+++ b/datos/procesadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jguerre9\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\david\eafit\curso-eafit-R\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A80A277-663D-4949-87F5-FFCC66E6ED03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65882AB0-2AE3-4E78-8C16-C71375598751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2160" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -368,23 +368,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>125</v>
       </c>
@@ -436,7 +436,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>29</v>
       </c>
@@ -462,7 +462,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>29</v>
       </c>
@@ -488,7 +488,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>29</v>
       </c>
@@ -514,7 +514,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>29</v>
       </c>
@@ -540,7 +540,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>26</v>
       </c>
@@ -566,7 +566,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>23</v>
       </c>
@@ -592,7 +592,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>23</v>
       </c>
@@ -618,7 +618,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>23</v>
       </c>
@@ -644,7 +644,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
@@ -670,7 +670,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>400</v>
       </c>
@@ -696,7 +696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>400</v>
       </c>
@@ -722,7 +722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>60</v>
       </c>
@@ -748,7 +748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50</v>
       </c>
@@ -774,7 +774,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>350</v>
       </c>
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>200</v>
       </c>
@@ -826,7 +826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>167</v>
       </c>
@@ -852,7 +852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>143</v>
       </c>
@@ -878,7 +878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>143</v>
       </c>
@@ -904,7 +904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>110</v>
       </c>
@@ -930,7 +930,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>143</v>
       </c>
@@ -956,7 +956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>143</v>
       </c>
@@ -982,7 +982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>143</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>110</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>320</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>320</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>320</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>320</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>320</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>320</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>25</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>25</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>50</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>50</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>56</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>64</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>50</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>50</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>50</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>50</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>50</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>50</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>50</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>50</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>133</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>133</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>810</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>810</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>320</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>200</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>700</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>700</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>140</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>200</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>110</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>110</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>220</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>800</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>800</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>800</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>800</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>800</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>125</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>75</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>75</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>75</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>90</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>105</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>105</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>105</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>75</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>75</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>175</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>300</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>300</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>300</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>300</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>300</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>300</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>180</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>330</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>300</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>300</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>330</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>330</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>140</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>140</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>140</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>140</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>140</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>140</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>140</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>140</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>57</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>57</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>26</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>26</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>26</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>26</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>480</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>203</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>115</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1100</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1100</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>600</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>400</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>400</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>900</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>900</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>900</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>900</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>900</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>225</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>225</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>180</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>185</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>180</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>225</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>25</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>25</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>17</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1500</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1500</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>800</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>50</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>50</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>50</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>50</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>50</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>50</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>100</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>100</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>100</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>50</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>50</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>50</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>150</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>115</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>115</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>92</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>92</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>92</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>75</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>60</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>60</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>60</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>50</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>72</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>72</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>40</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>40</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>35</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>38</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>48</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>38</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>30</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>112</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>84</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>56</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>56</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>56</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>56</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>56</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>56</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>38</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>38</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>38</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>38</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>38</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>200</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>200</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>200</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>250</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>250</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>250</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>160</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>160</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>160</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>160</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>160</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>240</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>240</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>105</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>105</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>105</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>52</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>70</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>59</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>59</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>26</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>26</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>26</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>116</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>50</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>50</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>50</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>50</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>30</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>30</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>180</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>180</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>180</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>180</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>124</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>98</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>125</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>480</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>480</v>
       </c>
@@ -5850,15 +5850,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E4AC77ADDBB64B4ABFBDEB80A6299176" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f8e25cd08cb3684c367503c4b5927a89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="545b9cca86c6060de293fc16275d6aa0" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5990,6 +5981,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6000,13 +6000,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC955FF4-83C2-43DB-A38C-A138FED221F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D780CC5-1A26-4187-A9A4-0392FD19DE2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D780CC5-1A26-4187-A9A4-0392FD19DE2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC955FF4-83C2-43DB-A38C-A138FED221F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36765172-6058-450E-9351-AC1CC808FDD4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36765172-6058-450E-9351-AC1CC808FDD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>